--- a/datos123_2.xlsx
+++ b/datos123_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://earthac-my.sharepoint.com/personal/mrodriguez_earth_ac_cr/Documents/Curso lectivo 2025/PG/Datospg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{E8A109D0-DCF7-4F95-BFFA-EA087C2ECF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6227824-B282-4892-AD66-24330FCD6F21}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{E8A109D0-DCF7-4F95-BFFA-EA087C2ECF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6227824-B282-4892-AD66-24330FCD6F21}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2CCAD48-E701-49D0-8DDD-FD73F704FDAE}"/>
   </bookViews>
@@ -18,13 +18,24 @@
     <sheet name="Ordenados x Dosis" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId5"/>
+    <pivotCache cacheId="4957" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -96,7 +107,22 @@
     <t>RV</t>
   </si>
   <si>
-    <t>Orden/trata</t>
+    <t>(Todas)</t>
+  </si>
+  <si>
+    <t>Promedio de Altura</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>TTO</t>
   </si>
   <si>
     <t>Repeticion</t>
@@ -105,67 +131,64 @@
     <t>Altura</t>
   </si>
   <si>
-    <t>TTO</t>
+    <t>Orden/trata</t>
+  </si>
+  <si>
+    <t>V:H/D:N</t>
   </si>
   <si>
     <t>Vigor High/Dosis Nula</t>
   </si>
   <si>
+    <t>V:M/D:N</t>
+  </si>
+  <si>
     <t>Vigor Medium/Dosis Nula</t>
+  </si>
+  <si>
+    <t>V:L/D:N</t>
   </si>
   <si>
     <t>Vigor Low /Dosis Nula</t>
   </si>
   <si>
-    <t>V:H/D:N</t>
+    <t>V:H/D:L</t>
   </si>
   <si>
-    <t>V:M/D:N</t>
-  </si>
-  <si>
-    <t>V:L/D:N</t>
-  </si>
-  <si>
-    <t>V:H/D:L</t>
+    <t>Vigor High/Dosis Low</t>
   </si>
   <si>
     <t>V:M/D:L</t>
   </si>
   <si>
+    <t>Vigor Medium/Dosis Low</t>
+  </si>
+  <si>
+    <t>Promedio de SPAD</t>
+  </si>
+  <si>
     <t>V:L/D:L</t>
+  </si>
+  <si>
+    <t>Vigor Low /Dosis Low</t>
+  </si>
+  <si>
+    <t>V:H/D:H</t>
   </si>
   <si>
     <t>V:H/D:M</t>
   </si>
   <si>
+    <t>Vigor High/Dosis Medium</t>
+  </si>
+  <si>
     <t>V:M/D:M</t>
   </si>
   <si>
-    <t>V:L/D:M</t>
+    <t>Vigor Medium/Dosis Medium</t>
   </si>
   <si>
-    <t>V:H/D:H</t>
-  </si>
-  <si>
-    <t>V:M/D:H</t>
-  </si>
-  <si>
-    <t>V:L/D:H</t>
-  </si>
-  <si>
-    <t>Vigor High/Dosis Low</t>
-  </si>
-  <si>
-    <t>Vigor Medium/Dosis Low</t>
-  </si>
-  <si>
-    <t>Vigor Low /Dosis Low</t>
-  </si>
-  <si>
-    <t>Vigor High/Dosis Medium</t>
-  </si>
-  <si>
-    <t>Vigor Medium/Dosis Medium</t>
+    <t>V:L/D:M</t>
   </si>
   <si>
     <t>Vigor Low /Dosis Medium</t>
@@ -174,25 +197,16 @@
     <t>Vigor High/Dosis High</t>
   </si>
   <si>
+    <t>V:L/D:H</t>
+  </si>
+  <si>
+    <t>V:M/D:H</t>
+  </si>
+  <si>
     <t>Vigor Medium/Dosis High</t>
   </si>
   <si>
     <t>Vigor Low /Dosis High</t>
-  </si>
-  <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>Etiquetas de columna</t>
-  </si>
-  <si>
-    <t>(Todas)</t>
-  </si>
-  <si>
-    <t>Promedio de Altura</t>
   </si>
   <si>
     <t>Medicon 1</t>
@@ -203,9 +217,6 @@
   <si>
     <t>Medicion 3</t>
   </si>
-  <si>
-    <t>Promedio de SPAD</t>
-  </si>
 </sst>
 </file>
 
@@ -213,9 +224,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,58 +683,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -737,7 +708,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
@@ -757,64 +728,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1015,7 +929,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="173" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1047,6 +961,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1069,13 +990,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1112,6 +1026,69 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1128,7 +1105,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1139,7 +1116,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[datos123.xlsx]Ordenados x Dosis!TablaDinámica13</c:name>
+    <c:name>[datos123_2.xlsx]Ordenados x Dosis!TablaDinámica13</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -1561,6 +1538,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1568,7 +1546,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1622,7 +1599,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2790,6 +2767,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2797,7 +2775,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7854,7 +7831,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97C7116E-B800-4953-983E-8E948471EF63}" name="TablaDinámica10" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97C7116E-B800-4953-983E-8E948471EF63}" name="TablaDinámica10" cacheId="4957" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" numFmtId="164" showAll="0">
@@ -7992,80 +7969,80 @@
     <dataField name="Promedio de Altura" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="35">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="22">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="23">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="25">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="30">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="32">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="33">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="34">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="35">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -8082,7 +8059,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B017A8B2-59DA-46AC-A16D-BC4449F80C4E}" name="TablaDinámica13" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B017A8B2-59DA-46AC-A16D-BC4449F80C4E}" name="TablaDinámica13" cacheId="4957" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="U6:V19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="164" showAll="0"/>
@@ -8164,7 +8141,7 @@
     <dataField name="Promedio de SPAD" fld="8" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -8223,41 +8200,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEAFBE7D-864C-4D85-BEB4-FF48FE2E4D07}" name="Tabla2" displayName="Tabla2" ref="A1:I289" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEAFBE7D-864C-4D85-BEB4-FF48FE2E4D07}" name="Tabla2" displayName="Tabla2" ref="A1:I289" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:I289" xr:uid="{E3428251-A32C-4581-BF04-FFF07202F910}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3931B5B5-0C05-4C65-86A1-D9A6A4EA8720}" name="Fecha" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{4A6A06D9-1458-49B5-AE9D-710C8DBB5CCA}" name="x" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{9D5F3282-3C53-49F1-9968-4EA19F2F465B}" name="y" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{0E208E57-A423-45DB-9556-D21CA5284323}" name="Punto" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{C499C3F2-B671-4E7F-8940-9DB1B626B57F}" name="Tratamiento" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{77ACF37A-C4A5-4170-9DAF-2280207C5C9B}" name="Repetición" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{20593A4B-F2B2-42F5-B384-02DDB51443F1}" name="Textura" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{287E7984-F847-4C5D-B1B8-1D17F95D8167}" name="SPAD" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{9E7F5481-5B8B-44AF-A21F-B817E26BD443}" name="ALTURA" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{3931B5B5-0C05-4C65-86A1-D9A6A4EA8720}" name="Fecha" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{4A6A06D9-1458-49B5-AE9D-710C8DBB5CCA}" name="x" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9D5F3282-3C53-49F1-9968-4EA19F2F465B}" name="y" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0E208E57-A423-45DB-9556-D21CA5284323}" name="Punto" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{C499C3F2-B671-4E7F-8940-9DB1B626B57F}" name="Tratamiento" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{77ACF37A-C4A5-4170-9DAF-2280207C5C9B}" name="Repetición" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{20593A4B-F2B2-42F5-B384-02DDB51443F1}" name="Textura" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{287E7984-F847-4C5D-B1B8-1D17F95D8167}" name="SPAD" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{9E7F5481-5B8B-44AF-A21F-B817E26BD443}" name="ALTURA" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4FD9DC7C-63FB-4452-B522-96CAE83E2561}" name="Tabla1" displayName="Tabla1" ref="A1:D13" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4FD9DC7C-63FB-4452-B522-96CAE83E2561}" name="Tabla1" displayName="Tabla1" ref="A1:D13" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:D13" xr:uid="{7B8A0F7E-56A6-423B-8D13-F47A89647D2D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="D1:D13"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{729E4148-9B4B-4AC3-8526-174013CB09A5}" name="Tratamiento" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{C3025B77-557F-4C98-AC26-FCF8D9292CAA}" name="Medicon 1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A2014DFB-136D-471B-9E94-27DF94B10B0A}" name="Medicion 2" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{95CD94C7-4C58-47F5-AD1F-992B7FD19E24}" name="Medicion 3" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{729E4148-9B4B-4AC3-8526-174013CB09A5}" name="Tratamiento" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C3025B77-557F-4C98-AC26-FCF8D9292CAA}" name="Medicon 1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A2014DFB-136D-471B-9E94-27DF94B10B0A}" name="Medicion 2" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{95CD94C7-4C58-47F5-AD1F-992B7FD19E24}" name="Medicion 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8559,20 +8536,20 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" style="1"/>
-    <col min="4" max="4" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="1"/>
+    <col min="10" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8601,7 +8578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="6">
         <v>45826</v>
       </c>
@@ -8630,7 +8607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="7">
         <v>45826</v>
       </c>
@@ -8659,7 +8636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6">
         <v>45826</v>
       </c>
@@ -8688,7 +8665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="7">
         <v>45826</v>
       </c>
@@ -8717,7 +8694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>45826</v>
       </c>
@@ -8746,7 +8723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>45826</v>
       </c>
@@ -8775,7 +8752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="6">
         <v>45826</v>
       </c>
@@ -8804,7 +8781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="7">
         <v>45826</v>
       </c>
@@ -8833,7 +8810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="6">
         <v>45826</v>
       </c>
@@ -8862,7 +8839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>45826</v>
       </c>
@@ -8891,7 +8868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>45826</v>
       </c>
@@ -8920,7 +8897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="7">
         <v>45826</v>
       </c>
@@ -8949,7 +8926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>45826</v>
       </c>
@@ -8978,7 +8955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="7">
         <v>45826</v>
       </c>
@@ -9007,7 +8984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>45826</v>
       </c>
@@ -9036,7 +9013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="7">
         <v>45826</v>
       </c>
@@ -9065,7 +9042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>45826</v>
       </c>
@@ -9094,7 +9071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>45826</v>
       </c>
@@ -9123,7 +9100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>45826</v>
       </c>
@@ -9152,7 +9129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>45826</v>
       </c>
@@ -9181,7 +9158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="6">
         <v>45826</v>
       </c>
@@ -9210,7 +9187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="7">
         <v>45826</v>
       </c>
@@ -9239,7 +9216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="6">
         <v>45826</v>
       </c>
@@ -9268,7 +9245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="7">
         <v>45826</v>
       </c>
@@ -9297,7 +9274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="6">
         <v>45826</v>
       </c>
@@ -9326,7 +9303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="7">
         <v>45826</v>
       </c>
@@ -9355,7 +9332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="6">
         <v>45826</v>
       </c>
@@ -9384,7 +9361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="7">
         <v>45826</v>
       </c>
@@ -9413,7 +9390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="6">
         <v>45826</v>
       </c>
@@ -9442,7 +9419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="7">
         <v>45826</v>
       </c>
@@ -9471,7 +9448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>45826</v>
       </c>
@@ -9500,7 +9477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="7">
         <v>45826</v>
       </c>
@@ -9529,7 +9506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>45826</v>
       </c>
@@ -9558,7 +9535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="7">
         <v>45826</v>
       </c>
@@ -9587,7 +9564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="6">
         <v>45826</v>
       </c>
@@ -9616,7 +9593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="7">
         <v>45826</v>
       </c>
@@ -9645,7 +9622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="6">
         <v>45826</v>
       </c>
@@ -9674,7 +9651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="7">
         <v>45826</v>
       </c>
@@ -9703,7 +9680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="6">
         <v>45826</v>
       </c>
@@ -9732,7 +9709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="7">
         <v>45826</v>
       </c>
@@ -9761,7 +9738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="6">
         <v>45826</v>
       </c>
@@ -9790,7 +9767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="7">
         <v>45826</v>
       </c>
@@ -9819,7 +9796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>45826</v>
       </c>
@@ -9848,7 +9825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="7">
         <v>45826</v>
       </c>
@@ -9877,7 +9854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="6">
         <v>45826</v>
       </c>
@@ -9906,7 +9883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="7">
         <v>45826</v>
       </c>
@@ -9935,7 +9912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="6">
         <v>45826</v>
       </c>
@@ -9964,7 +9941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="7">
         <v>45826</v>
       </c>
@@ -9993,7 +9970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="6">
         <v>45826</v>
       </c>
@@ -10022,7 +9999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="7">
         <v>45826</v>
       </c>
@@ -10051,7 +10028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="6">
         <v>45826</v>
       </c>
@@ -10080,7 +10057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="7">
         <v>45826</v>
       </c>
@@ -10109,7 +10086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="6">
         <v>45826</v>
       </c>
@@ -10138,7 +10115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="7">
         <v>45826</v>
       </c>
@@ -10167,7 +10144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="6">
         <v>45826</v>
       </c>
@@ -10196,7 +10173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="7">
         <v>45826</v>
       </c>
@@ -10225,7 +10202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="6">
         <v>45826</v>
       </c>
@@ -10254,7 +10231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="7">
         <v>45826</v>
       </c>
@@ -10283,7 +10260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="6">
         <v>45826</v>
       </c>
@@ -10312,7 +10289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="7">
         <v>45826</v>
       </c>
@@ -10341,7 +10318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="6">
         <v>45826</v>
       </c>
@@ -10370,7 +10347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="7">
         <v>45826</v>
       </c>
@@ -10399,7 +10376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="6">
         <v>45826</v>
       </c>
@@ -10428,7 +10405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="7">
         <v>45826</v>
       </c>
@@ -10457,7 +10434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="6">
         <v>45826</v>
       </c>
@@ -10486,7 +10463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="7">
         <v>45826</v>
       </c>
@@ -10515,7 +10492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="6">
         <v>45826</v>
       </c>
@@ -10544,7 +10521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="7">
         <v>45826</v>
       </c>
@@ -10573,7 +10550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="6">
         <v>45826</v>
       </c>
@@ -10602,7 +10579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="7">
         <v>45826</v>
       </c>
@@ -10631,7 +10608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="6">
         <v>45826</v>
       </c>
@@ -10660,7 +10637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="7">
         <v>45826</v>
       </c>
@@ -10689,7 +10666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="6">
         <v>45826</v>
       </c>
@@ -10718,7 +10695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="7">
         <v>45826</v>
       </c>
@@ -10747,7 +10724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="6">
         <v>45826</v>
       </c>
@@ -10776,7 +10753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="7">
         <v>45826</v>
       </c>
@@ -10805,7 +10782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="6">
         <v>45826</v>
       </c>
@@ -10834,7 +10811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="7">
         <v>45826</v>
       </c>
@@ -10863,7 +10840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="6">
         <v>45826</v>
       </c>
@@ -10892,7 +10869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="7">
         <v>45826</v>
       </c>
@@ -10921,7 +10898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="6">
         <v>45826</v>
       </c>
@@ -10950,7 +10927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="7">
         <v>45826</v>
       </c>
@@ -10979,7 +10956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="6">
         <v>45826</v>
       </c>
@@ -11008,7 +10985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="7">
         <v>45826</v>
       </c>
@@ -11037,7 +11014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="6">
         <v>45826</v>
       </c>
@@ -11066,7 +11043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="7">
         <v>45826</v>
       </c>
@@ -11095,7 +11072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="6">
         <v>45826</v>
       </c>
@@ -11124,7 +11101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="7">
         <v>45826</v>
       </c>
@@ -11153,7 +11130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="6">
         <v>45826</v>
       </c>
@@ -11182,7 +11159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="7">
         <v>45826</v>
       </c>
@@ -11211,7 +11188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="6">
         <v>45826</v>
       </c>
@@ -11240,7 +11217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="7">
         <v>45826</v>
       </c>
@@ -11269,7 +11246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="6">
         <v>45826</v>
       </c>
@@ -11298,7 +11275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="7">
         <v>45826</v>
       </c>
@@ -11327,7 +11304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="6">
         <v>45826</v>
       </c>
@@ -11356,7 +11333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="7">
         <v>45826</v>
       </c>
@@ -11385,7 +11362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="8">
         <v>45833</v>
       </c>
@@ -11414,7 +11391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="7">
         <v>45833</v>
       </c>
@@ -11443,7 +11420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="8">
         <v>45833</v>
       </c>
@@ -11472,7 +11449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="7">
         <v>45833</v>
       </c>
@@ -11501,7 +11478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="8">
         <v>45833</v>
       </c>
@@ -11530,7 +11507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="7">
         <v>45833</v>
       </c>
@@ -11559,7 +11536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="8">
         <v>45833</v>
       </c>
@@ -11588,7 +11565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="7">
         <v>45833</v>
       </c>
@@ -11617,7 +11594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="8">
         <v>45833</v>
       </c>
@@ -11646,7 +11623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="7">
         <v>45833</v>
       </c>
@@ -11675,7 +11652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" s="8">
         <v>45833</v>
       </c>
@@ -11704,7 +11681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="7">
         <v>45833</v>
       </c>
@@ -11733,7 +11710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="8">
         <v>45833</v>
       </c>
@@ -11762,7 +11739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="7">
         <v>45833</v>
       </c>
@@ -11791,7 +11768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" s="8">
         <v>45833</v>
       </c>
@@ -11820,7 +11797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="7">
         <v>45833</v>
       </c>
@@ -11849,7 +11826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="8">
         <v>45833</v>
       </c>
@@ -11878,7 +11855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="7">
         <v>45833</v>
       </c>
@@ -11907,7 +11884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="8">
         <v>45833</v>
       </c>
@@ -11936,7 +11913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="7">
         <v>45833</v>
       </c>
@@ -11965,7 +11942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="8">
         <v>45833</v>
       </c>
@@ -11994,7 +11971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="7">
         <v>45833</v>
       </c>
@@ -12023,7 +12000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="8">
         <v>45833</v>
       </c>
@@ -12052,7 +12029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="7">
         <v>45833</v>
       </c>
@@ -12081,7 +12058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="8">
         <v>45833</v>
       </c>
@@ -12110,7 +12087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="7">
         <v>45833</v>
       </c>
@@ -12139,7 +12116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="8">
         <v>45833</v>
       </c>
@@ -12168,7 +12145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="7">
         <v>45833</v>
       </c>
@@ -12197,7 +12174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="8">
         <v>45833</v>
       </c>
@@ -12226,7 +12203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="7">
         <v>45833</v>
       </c>
@@ -12255,7 +12232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="8">
         <v>45833</v>
       </c>
@@ -12284,7 +12261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="7">
         <v>45833</v>
       </c>
@@ -12313,7 +12290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" s="8">
         <v>45833</v>
       </c>
@@ -12342,7 +12319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" s="7">
         <v>45833</v>
       </c>
@@ -12371,7 +12348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="8">
         <v>45833</v>
       </c>
@@ -12400,7 +12377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="7">
         <v>45833</v>
       </c>
@@ -12429,7 +12406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="8">
         <v>45833</v>
       </c>
@@ -12458,7 +12435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9">
       <c r="A135" s="7">
         <v>45833</v>
       </c>
@@ -12487,7 +12464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" s="8">
         <v>45833</v>
       </c>
@@ -12516,7 +12493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" s="7">
         <v>45833</v>
       </c>
@@ -12545,7 +12522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" s="8">
         <v>45833</v>
       </c>
@@ -12574,7 +12551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="7">
         <v>45833</v>
       </c>
@@ -12603,7 +12580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="8">
         <v>45833</v>
       </c>
@@ -12632,7 +12609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="7">
         <v>45833</v>
       </c>
@@ -12661,7 +12638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="8">
         <v>45833</v>
       </c>
@@ -12690,7 +12667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="7">
         <v>45833</v>
       </c>
@@ -12719,7 +12696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" s="8">
         <v>45833</v>
       </c>
@@ -12748,7 +12725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="A145" s="7">
         <v>45833</v>
       </c>
@@ -12777,7 +12754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="8">
         <v>45833</v>
       </c>
@@ -12806,7 +12783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" s="7">
         <v>45833</v>
       </c>
@@ -12835,7 +12812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" s="8">
         <v>45833</v>
       </c>
@@ -12864,7 +12841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="7">
         <v>45833</v>
       </c>
@@ -12893,7 +12870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="8">
         <v>45833</v>
       </c>
@@ -12922,7 +12899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" s="7">
         <v>45833</v>
       </c>
@@ -12951,7 +12928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" s="8">
         <v>45833</v>
       </c>
@@ -12980,7 +12957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" s="7">
         <v>45833</v>
       </c>
@@ -13009,7 +12986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" s="8">
         <v>45833</v>
       </c>
@@ -13038,7 +13015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" s="7">
         <v>45833</v>
       </c>
@@ -13067,7 +13044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" s="8">
         <v>45833</v>
       </c>
@@ -13096,7 +13073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" s="7">
         <v>45833</v>
       </c>
@@ -13125,7 +13102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9">
       <c r="A158" s="8">
         <v>45833</v>
       </c>
@@ -13154,7 +13131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="A159" s="7">
         <v>45833</v>
       </c>
@@ -13183,7 +13160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" s="8">
         <v>45833</v>
       </c>
@@ -13212,7 +13189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9">
       <c r="A161" s="7">
         <v>45833</v>
       </c>
@@ -13241,7 +13218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9">
       <c r="A162" s="8">
         <v>45833</v>
       </c>
@@ -13270,7 +13247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9">
       <c r="A163" s="7">
         <v>45833</v>
       </c>
@@ -13299,7 +13276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9">
       <c r="A164" s="8">
         <v>45833</v>
       </c>
@@ -13328,7 +13305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9">
       <c r="A165" s="7">
         <v>45833</v>
       </c>
@@ -13357,7 +13334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9">
       <c r="A166" s="8">
         <v>45833</v>
       </c>
@@ -13386,7 +13363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" s="7">
         <v>45833</v>
       </c>
@@ -13415,7 +13392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9">
       <c r="A168" s="8">
         <v>45833</v>
       </c>
@@ -13444,7 +13421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9">
       <c r="A169" s="7">
         <v>45833</v>
       </c>
@@ -13473,7 +13450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9">
       <c r="A170" s="8">
         <v>45833</v>
       </c>
@@ -13502,7 +13479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9">
       <c r="A171" s="7">
         <v>45833</v>
       </c>
@@ -13531,7 +13508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9">
       <c r="A172" s="8">
         <v>45833</v>
       </c>
@@ -13560,7 +13537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9">
       <c r="A173" s="7">
         <v>45833</v>
       </c>
@@ -13589,7 +13566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9">
       <c r="A174" s="8">
         <v>45833</v>
       </c>
@@ -13618,7 +13595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9">
       <c r="A175" s="7">
         <v>45833</v>
       </c>
@@ -13647,7 +13624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9">
       <c r="A176" s="8">
         <v>45833</v>
       </c>
@@ -13676,7 +13653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9">
       <c r="A177" s="7">
         <v>45833</v>
       </c>
@@ -13705,7 +13682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9">
       <c r="A178" s="8">
         <v>45833</v>
       </c>
@@ -13734,7 +13711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9">
       <c r="A179" s="7">
         <v>45833</v>
       </c>
@@ -13763,7 +13740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9">
       <c r="A180" s="8">
         <v>45833</v>
       </c>
@@ -13792,7 +13769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9">
       <c r="A181" s="7">
         <v>45833</v>
       </c>
@@ -13821,7 +13798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9">
       <c r="A182" s="8">
         <v>45833</v>
       </c>
@@ -13850,7 +13827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9">
       <c r="A183" s="7">
         <v>45833</v>
       </c>
@@ -13879,7 +13856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9">
       <c r="A184" s="8">
         <v>45833</v>
       </c>
@@ -13908,7 +13885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9">
       <c r="A185" s="7">
         <v>45833</v>
       </c>
@@ -13937,7 +13914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9">
       <c r="A186" s="8">
         <v>45833</v>
       </c>
@@ -13966,7 +13943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9">
       <c r="A187" s="7">
         <v>45833</v>
       </c>
@@ -13995,7 +13972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9">
       <c r="A188" s="8">
         <v>45833</v>
       </c>
@@ -14024,7 +14001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9">
       <c r="A189" s="7">
         <v>45833</v>
       </c>
@@ -14053,7 +14030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9">
       <c r="A190" s="8">
         <v>45833</v>
       </c>
@@ -14082,7 +14059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9">
       <c r="A191" s="7">
         <v>45833</v>
       </c>
@@ -14111,7 +14088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9">
       <c r="A192" s="8">
         <v>45833</v>
       </c>
@@ -14140,7 +14117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9">
       <c r="A193" s="7">
         <v>45833</v>
       </c>
@@ -14169,7 +14146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9">
       <c r="A194" s="6">
         <v>45839</v>
       </c>
@@ -14198,7 +14175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9">
       <c r="A195" s="7">
         <v>45839</v>
       </c>
@@ -14227,7 +14204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9">
       <c r="A196" s="6">
         <v>45839</v>
       </c>
@@ -14256,7 +14233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9">
       <c r="A197" s="7">
         <v>45839</v>
       </c>
@@ -14285,7 +14262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9">
       <c r="A198" s="6">
         <v>45839</v>
       </c>
@@ -14314,7 +14291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9">
       <c r="A199" s="7">
         <v>45839</v>
       </c>
@@ -14343,7 +14320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9">
       <c r="A200" s="6">
         <v>45839</v>
       </c>
@@ -14372,7 +14349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9">
       <c r="A201" s="7">
         <v>45839</v>
       </c>
@@ -14401,7 +14378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9">
       <c r="A202" s="6">
         <v>45839</v>
       </c>
@@ -14430,7 +14407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9">
       <c r="A203" s="7">
         <v>45839</v>
       </c>
@@ -14459,7 +14436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9">
       <c r="A204" s="6">
         <v>45839</v>
       </c>
@@ -14488,7 +14465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9">
       <c r="A205" s="7">
         <v>45839</v>
       </c>
@@ -14517,7 +14494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9">
       <c r="A206" s="6">
         <v>45839</v>
       </c>
@@ -14546,7 +14523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9">
       <c r="A207" s="7">
         <v>45839</v>
       </c>
@@ -14575,7 +14552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9">
       <c r="A208" s="6">
         <v>45839</v>
       </c>
@@ -14604,7 +14581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9">
       <c r="A209" s="7">
         <v>45839</v>
       </c>
@@ -14633,7 +14610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9">
       <c r="A210" s="6">
         <v>45839</v>
       </c>
@@ -14662,7 +14639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9">
       <c r="A211" s="7">
         <v>45839</v>
       </c>
@@ -14691,7 +14668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9">
       <c r="A212" s="6">
         <v>45839</v>
       </c>
@@ -14720,7 +14697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9">
       <c r="A213" s="7">
         <v>45839</v>
       </c>
@@ -14749,7 +14726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9">
       <c r="A214" s="6">
         <v>45839</v>
       </c>
@@ -14778,7 +14755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9">
       <c r="A215" s="7">
         <v>45839</v>
       </c>
@@ -14807,7 +14784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9">
       <c r="A216" s="6">
         <v>45839</v>
       </c>
@@ -14836,7 +14813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9">
       <c r="A217" s="7">
         <v>45839</v>
       </c>
@@ -14865,7 +14842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9">
       <c r="A218" s="6">
         <v>45839</v>
       </c>
@@ -14894,7 +14871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9">
       <c r="A219" s="7">
         <v>45839</v>
       </c>
@@ -14923,7 +14900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9">
       <c r="A220" s="6">
         <v>45839</v>
       </c>
@@ -14952,7 +14929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9">
       <c r="A221" s="7">
         <v>45839</v>
       </c>
@@ -14981,7 +14958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9">
       <c r="A222" s="6">
         <v>45839</v>
       </c>
@@ -15010,7 +14987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9">
       <c r="A223" s="7">
         <v>45839</v>
       </c>
@@ -15039,7 +15016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9">
       <c r="A224" s="6">
         <v>45839</v>
       </c>
@@ -15068,7 +15045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9">
       <c r="A225" s="7">
         <v>45839</v>
       </c>
@@ -15097,7 +15074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9">
       <c r="A226" s="6">
         <v>45839</v>
       </c>
@@ -15126,7 +15103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9">
       <c r="A227" s="7">
         <v>45839</v>
       </c>
@@ -15155,7 +15132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9">
       <c r="A228" s="6">
         <v>45839</v>
       </c>
@@ -15184,7 +15161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9">
       <c r="A229" s="7">
         <v>45839</v>
       </c>
@@ -15213,7 +15190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9">
       <c r="A230" s="6">
         <v>45839</v>
       </c>
@@ -15242,7 +15219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9">
       <c r="A231" s="7">
         <v>45839</v>
       </c>
@@ -15271,7 +15248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9">
       <c r="A232" s="6">
         <v>45839</v>
       </c>
@@ -15300,7 +15277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9">
       <c r="A233" s="7">
         <v>45839</v>
       </c>
@@ -15329,7 +15306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9">
       <c r="A234" s="6">
         <v>45839</v>
       </c>
@@ -15358,7 +15335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9">
       <c r="A235" s="7">
         <v>45839</v>
       </c>
@@ -15387,7 +15364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9">
       <c r="A236" s="6">
         <v>45839</v>
       </c>
@@ -15416,7 +15393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9">
       <c r="A237" s="7">
         <v>45839</v>
       </c>
@@ -15445,7 +15422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9">
       <c r="A238" s="6">
         <v>45839</v>
       </c>
@@ -15474,7 +15451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9">
       <c r="A239" s="7">
         <v>45839</v>
       </c>
@@ -15503,7 +15480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9">
       <c r="A240" s="6">
         <v>45839</v>
       </c>
@@ -15532,7 +15509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9">
       <c r="A241" s="7">
         <v>45839</v>
       </c>
@@ -15561,7 +15538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9">
       <c r="A242" s="6">
         <v>45839</v>
       </c>
@@ -15590,7 +15567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9">
       <c r="A243" s="7">
         <v>45839</v>
       </c>
@@ -15619,7 +15596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9">
       <c r="A244" s="6">
         <v>45839</v>
       </c>
@@ -15648,7 +15625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9">
       <c r="A245" s="7">
         <v>45839</v>
       </c>
@@ -15677,7 +15654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9">
       <c r="A246" s="6">
         <v>45839</v>
       </c>
@@ -15706,7 +15683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9">
       <c r="A247" s="7">
         <v>45839</v>
       </c>
@@ -15735,7 +15712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9">
       <c r="A248" s="6">
         <v>45839</v>
       </c>
@@ -15764,7 +15741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9">
       <c r="A249" s="7">
         <v>45839</v>
       </c>
@@ -15793,7 +15770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9">
       <c r="A250" s="6">
         <v>45839</v>
       </c>
@@ -15822,7 +15799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9">
       <c r="A251" s="7">
         <v>45839</v>
       </c>
@@ -15851,7 +15828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9">
       <c r="A252" s="6">
         <v>45839</v>
       </c>
@@ -15880,7 +15857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9">
       <c r="A253" s="7">
         <v>45839</v>
       </c>
@@ -15909,7 +15886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9">
       <c r="A254" s="6">
         <v>45839</v>
       </c>
@@ -15938,7 +15915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9">
       <c r="A255" s="7">
         <v>45839</v>
       </c>
@@ -15967,7 +15944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9">
       <c r="A256" s="6">
         <v>45839</v>
       </c>
@@ -15996,7 +15973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9">
       <c r="A257" s="7">
         <v>45839</v>
       </c>
@@ -16025,7 +16002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9">
       <c r="A258" s="6">
         <v>45839</v>
       </c>
@@ -16054,7 +16031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9">
       <c r="A259" s="7">
         <v>45839</v>
       </c>
@@ -16083,7 +16060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9">
       <c r="A260" s="6">
         <v>45839</v>
       </c>
@@ -16112,7 +16089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9">
       <c r="A261" s="7">
         <v>45839</v>
       </c>
@@ -16141,7 +16118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9">
       <c r="A262" s="6">
         <v>45839</v>
       </c>
@@ -16170,7 +16147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9">
       <c r="A263" s="7">
         <v>45839</v>
       </c>
@@ -16199,7 +16176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9">
       <c r="A264" s="6">
         <v>45839</v>
       </c>
@@ -16228,7 +16205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9">
       <c r="A265" s="7">
         <v>45839</v>
       </c>
@@ -16257,7 +16234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9">
       <c r="A266" s="6">
         <v>45839</v>
       </c>
@@ -16286,7 +16263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9">
       <c r="A267" s="7">
         <v>45839</v>
       </c>
@@ -16315,7 +16292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9">
       <c r="A268" s="6">
         <v>45839</v>
       </c>
@@ -16344,7 +16321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9">
       <c r="A269" s="7">
         <v>45839</v>
       </c>
@@ -16373,7 +16350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9">
       <c r="A270" s="6">
         <v>45839</v>
       </c>
@@ -16402,7 +16379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9">
       <c r="A271" s="7">
         <v>45839</v>
       </c>
@@ -16431,7 +16408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9">
       <c r="A272" s="6">
         <v>45839</v>
       </c>
@@ -16460,7 +16437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9">
       <c r="A273" s="7">
         <v>45839</v>
       </c>
@@ -16489,7 +16466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9">
       <c r="A274" s="6">
         <v>45839</v>
       </c>
@@ -16518,7 +16495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9">
       <c r="A275" s="7">
         <v>45839</v>
       </c>
@@ -16547,7 +16524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9">
       <c r="A276" s="6">
         <v>45839</v>
       </c>
@@ -16576,7 +16553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9">
       <c r="A277" s="7">
         <v>45839</v>
       </c>
@@ -16605,7 +16582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9">
       <c r="A278" s="6">
         <v>45839</v>
       </c>
@@ -16634,7 +16611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9">
       <c r="A279" s="7">
         <v>45839</v>
       </c>
@@ -16663,7 +16640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9">
       <c r="A280" s="6">
         <v>45839</v>
       </c>
@@ -16692,7 +16669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9">
       <c r="A281" s="7">
         <v>45839</v>
       </c>
@@ -16721,7 +16698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9">
       <c r="A282" s="6">
         <v>45839</v>
       </c>
@@ -16750,7 +16727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9">
       <c r="A283" s="7">
         <v>45839</v>
       </c>
@@ -16779,7 +16756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9">
       <c r="A284" s="6">
         <v>45839</v>
       </c>
@@ -16808,7 +16785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9">
       <c r="A285" s="7">
         <v>45839</v>
       </c>
@@ -16837,7 +16814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9">
       <c r="A286" s="6">
         <v>45839</v>
       </c>
@@ -16866,7 +16843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9">
       <c r="A287" s="7">
         <v>45839</v>
       </c>
@@ -16895,7 +16872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9">
       <c r="A288" s="6">
         <v>45839</v>
       </c>
@@ -16924,7 +16901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" s="15">
         <v>45839</v>
       </c>
@@ -16969,383 +16946,383 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="47" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.21875" style="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="47" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="47" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8" style="47" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.21875" style="47" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" style="47" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9" style="47" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="27.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" style="47" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="11.5546875" style="47"/>
+    <col min="42" max="16384" width="11.5703125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="51">
         <v>45826</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="51">
         <v>45833</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="51">
         <v>45839</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="47">
         <v>1</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="47">
         <v>7.625</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="47">
         <v>13</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="47">
         <v>13.625</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="47">
         <v>11.416666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="47">
         <v>2</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="47">
         <v>7.375</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="47">
         <v>10.5</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="47">
         <v>13.25</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="47">
         <v>10.375</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="47">
         <v>3</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="47">
         <v>7.375</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="47">
         <v>11.375</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="47">
         <v>13.5</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="47">
         <v>10.75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="47">
         <v>4</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="47">
         <v>7.375</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="47">
         <v>11.375</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="47">
         <v>12.625</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="47">
         <v>10.458333333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="47">
         <v>5</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="47">
         <v>7.5</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="47">
         <v>11.5</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="47">
         <v>12.875</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="47">
         <v>10.625</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="47">
         <v>6</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="47">
         <v>7.25</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="47">
         <v>10.75</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="47">
         <v>12.25</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="47">
         <v>10.083333333333334</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="47">
         <v>7</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="47">
         <v>6.625</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="47">
         <v>9</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="47">
         <v>11.5</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="47">
         <v>9.0416666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="47">
         <v>8</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="47">
         <v>7.25</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="47">
         <v>10.625</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="47">
         <v>12.5</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="47">
         <v>10.125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="47">
         <v>9</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="47">
         <v>7.125</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="47">
         <v>10.375</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="47">
         <v>12.75</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="47">
         <v>10.083333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="47">
         <v>10</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="47">
         <v>7</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="47">
         <v>9.25</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="47">
         <v>10.375</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="47">
         <v>8.875</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="47">
         <v>11</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="47">
         <v>6.625</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="47">
         <v>8.75</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="47">
         <v>10.5</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="47">
         <v>8.625</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="47">
         <v>12</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="47">
         <v>7</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="47">
         <v>9.625</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="47">
         <v>10.75</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="47">
         <v>9.125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="53">
+        <v>25</v>
+      </c>
+      <c r="B17" s="47">
         <v>7.177083333333333</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="47">
         <v>10.510416666666666</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="47">
         <v>12.208333333333334</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="47">
         <v>9.9652777777777786</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -17365,23 +17342,23 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5546875" style="47"/>
+    <col min="1" max="1" width="25.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5703125" style="47"/>
     <col min="5" max="5" width="13" style="47" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.5546875" style="47"/>
-    <col min="11" max="11" width="12.6640625" style="47" customWidth="1"/>
-    <col min="12" max="14" width="11.5546875" style="47"/>
-    <col min="15" max="15" width="25.77734375" style="47" customWidth="1"/>
-    <col min="16" max="20" width="11.5546875" style="47"/>
-    <col min="21" max="21" width="16.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.5546875" style="47"/>
+    <col min="6" max="6" width="21.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.5703125" style="47"/>
+    <col min="11" max="11" width="12.7109375" style="47" customWidth="1"/>
+    <col min="12" max="14" width="11.5703125" style="47"/>
+    <col min="15" max="15" width="25.7109375" style="47" customWidth="1"/>
+    <col min="16" max="20" width="11.5703125" style="47"/>
+    <col min="21" max="21" width="16.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15" thickBot="1">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -17395,13 +17372,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H1" s="45" t="s">
         <v>6</v>
@@ -17410,13 +17387,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K1" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="26">
         <v>45826</v>
       </c>
@@ -17455,15 +17432,15 @@
         <v>16</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="26">
         <v>45826</v>
       </c>
@@ -17502,15 +17479,15 @@
         <v>13</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="26">
         <v>45826</v>
       </c>
@@ -17549,15 +17526,15 @@
         <v>15</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" s="26">
         <v>45826</v>
       </c>
@@ -17596,15 +17573,15 @@
         <v>17</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P5" s="28"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="26">
         <v>45826</v>
       </c>
@@ -17643,22 +17620,22 @@
         <v>18</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="2"/>
       <c r="U6" s="48" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="26">
         <v>45826</v>
       </c>
@@ -17697,7 +17674,7 @@
         <v>14</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O7" s="39" t="s">
         <v>42</v>
@@ -17705,14 +17682,14 @@
       <c r="P7" s="28"/>
       <c r="Q7" s="3"/>
       <c r="U7" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="54">
+        <v>43</v>
+      </c>
+      <c r="V7" s="52">
         <v>35.583333333333336</v>
       </c>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="26">
         <v>45826</v>
       </c>
@@ -17751,22 +17728,22 @@
         <v>11</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O8" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="27"/>
       <c r="Q8" s="2"/>
       <c r="U8" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="54">
+        <v>36</v>
+      </c>
+      <c r="V8" s="52">
         <v>34.745833333333337</v>
       </c>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="26">
         <v>45826</v>
       </c>
@@ -17805,22 +17782,22 @@
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="3"/>
       <c r="U9" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="54">
+        <v>44</v>
+      </c>
+      <c r="V9" s="52">
         <v>34.304166666666674</v>
       </c>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="26">
         <v>45833</v>
       </c>
@@ -17859,22 +17836,22 @@
         <v>10</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="O10" s="39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P10" s="27"/>
       <c r="Q10" s="5"/>
       <c r="U10" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="54">
+        <v>30</v>
+      </c>
+      <c r="V10" s="52">
         <v>32.200000000000003</v>
       </c>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="26">
         <v>45833</v>
       </c>
@@ -17913,22 +17890,22 @@
         <v>12</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O11" s="39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="3"/>
       <c r="U11" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="54">
+        <v>51</v>
+      </c>
+      <c r="V11" s="52">
         <v>34.304166666666667</v>
       </c>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="26">
         <v>45833</v>
       </c>
@@ -17967,22 +17944,22 @@
         <v>9</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="O12" s="37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P12" s="27"/>
       <c r="Q12" s="5"/>
       <c r="U12" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="54">
+        <v>41</v>
+      </c>
+      <c r="V12" s="52">
         <v>35.320833333333333</v>
       </c>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" thickBot="1">
       <c r="A13" s="26">
         <v>45833</v>
       </c>
@@ -18021,22 +17998,22 @@
         <v>20</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="O13" s="43" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="3"/>
       <c r="U13" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" s="54">
+        <v>48</v>
+      </c>
+      <c r="V13" s="52">
         <v>34.866666666666667</v>
       </c>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" s="26">
         <v>45833</v>
       </c>
@@ -18077,14 +18054,14 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="5"/>
       <c r="U14" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="V14" s="54">
+        <v>34</v>
+      </c>
+      <c r="V14" s="52">
         <v>34.012500000000003</v>
       </c>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="26">
         <v>45833</v>
       </c>
@@ -18125,14 +18102,14 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="U15" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="V15" s="54">
+        <v>52</v>
+      </c>
+      <c r="V15" s="52">
         <v>35.187499999999993</v>
       </c>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="26">
         <v>45833</v>
       </c>
@@ -18173,14 +18150,14 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="5"/>
       <c r="U16" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="V16" s="54">
+        <v>38</v>
+      </c>
+      <c r="V16" s="52">
         <v>33.637500000000003</v>
       </c>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="26">
         <v>45833</v>
       </c>
@@ -18221,14 +18198,14 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="U17" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" s="54">
+        <v>46</v>
+      </c>
+      <c r="V17" s="52">
         <v>34.554166666666667</v>
       </c>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="26">
         <v>45839</v>
       </c>
@@ -18269,14 +18246,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="U18" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="54">
+        <v>32</v>
+      </c>
+      <c r="V18" s="52">
         <v>34.12916666666667</v>
       </c>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="26">
         <v>45839</v>
       </c>
@@ -18317,14 +18294,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="U19" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="V19" s="50">
+        <v>25</v>
+      </c>
+      <c r="V19">
         <v>34.403819444444437</v>
       </c>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="26">
         <v>45839</v>
       </c>
@@ -18368,7 +18345,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="26">
         <v>45839</v>
       </c>
@@ -18412,7 +18389,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="26">
         <v>45839</v>
       </c>
@@ -18456,7 +18433,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="26">
         <v>45839</v>
       </c>
@@ -18500,7 +18477,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="26">
         <v>45839</v>
       </c>
@@ -18541,7 +18518,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" s="26">
         <v>45839</v>
       </c>
@@ -18582,7 +18559,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" s="26">
         <v>45826</v>
       </c>
@@ -18623,7 +18600,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" s="26">
         <v>45826</v>
       </c>
@@ -18664,7 +18641,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" s="26">
         <v>45826</v>
       </c>
@@ -18705,7 +18682,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" s="26">
         <v>45826</v>
       </c>
@@ -18746,7 +18723,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" s="26">
         <v>45826</v>
       </c>
@@ -18787,7 +18764,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" s="26">
         <v>45826</v>
       </c>
@@ -18828,7 +18805,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" s="26">
         <v>45826</v>
       </c>
@@ -18869,7 +18846,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" s="26">
         <v>45826</v>
       </c>
@@ -18910,7 +18887,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="26">
         <v>45833</v>
       </c>
@@ -18951,7 +18928,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" s="26">
         <v>45833</v>
       </c>
@@ -18992,7 +18969,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" s="26">
         <v>45833</v>
       </c>
@@ -19033,7 +19010,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" s="26">
         <v>45833</v>
       </c>
@@ -19074,7 +19051,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" s="26">
         <v>45833</v>
       </c>
@@ -19115,7 +19092,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="26">
         <v>45833</v>
       </c>
@@ -19156,7 +19133,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" s="26">
         <v>45833</v>
       </c>
@@ -19197,7 +19174,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" s="26">
         <v>45833</v>
       </c>
@@ -19238,7 +19215,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" s="26">
         <v>45839</v>
       </c>
@@ -19279,7 +19256,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" s="26">
         <v>45839</v>
       </c>
@@ -19320,7 +19297,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="A44" s="26">
         <v>45839</v>
       </c>
@@ -19361,7 +19338,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="A45" s="26">
         <v>45839</v>
       </c>
@@ -19402,7 +19379,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46" s="26">
         <v>45839</v>
       </c>
@@ -19443,7 +19420,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47" s="26">
         <v>45839</v>
       </c>
@@ -19484,7 +19461,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" s="26">
         <v>45839</v>
       </c>
@@ -19525,7 +19502,7 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="A49" s="26">
         <v>45839</v>
       </c>
@@ -19566,7 +19543,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="A50" s="26">
         <v>45826</v>
       </c>
@@ -19607,7 +19584,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="A51" s="26">
         <v>45826</v>
       </c>
@@ -19648,7 +19625,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="A52" s="26">
         <v>45826</v>
       </c>
@@ -19689,7 +19666,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="A53" s="26">
         <v>45826</v>
       </c>
@@ -19730,7 +19707,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17">
       <c r="A54" s="26">
         <v>45826</v>
       </c>
@@ -19771,7 +19748,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="A55" s="26">
         <v>45826</v>
       </c>
@@ -19812,7 +19789,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="A56" s="26">
         <v>45826</v>
       </c>
@@ -19853,7 +19830,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="A57" s="26">
         <v>45826</v>
       </c>
@@ -19894,7 +19871,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="A58" s="26">
         <v>45833</v>
       </c>
@@ -19935,7 +19912,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17">
       <c r="A59" s="26">
         <v>45833</v>
       </c>
@@ -19976,7 +19953,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17">
       <c r="A60" s="26">
         <v>45833</v>
       </c>
@@ -20017,7 +19994,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17">
       <c r="A61" s="26">
         <v>45833</v>
       </c>
@@ -20058,7 +20035,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17">
       <c r="A62" s="26">
         <v>45833</v>
       </c>
@@ -20099,7 +20076,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="5"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17">
       <c r="A63" s="26">
         <v>45833</v>
       </c>
@@ -20140,7 +20117,7 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17">
       <c r="A64" s="26">
         <v>45833</v>
       </c>
@@ -20181,7 +20158,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="5"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17">
       <c r="A65" s="26">
         <v>45833</v>
       </c>
@@ -20222,7 +20199,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17">
       <c r="A66" s="26">
         <v>45839</v>
       </c>
@@ -20263,7 +20240,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="A67" s="26">
         <v>45839</v>
       </c>
@@ -20304,7 +20281,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="A68" s="26">
         <v>45839</v>
       </c>
@@ -20345,7 +20322,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17">
       <c r="A69" s="26">
         <v>45839</v>
       </c>
@@ -20386,7 +20363,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17">
       <c r="A70" s="26">
         <v>45839</v>
       </c>
@@ -20427,7 +20404,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17">
       <c r="A71" s="26">
         <v>45839</v>
       </c>
@@ -20468,7 +20445,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17">
       <c r="A72" s="26">
         <v>45839</v>
       </c>
@@ -20509,7 +20486,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17">
       <c r="A73" s="26">
         <v>45839</v>
       </c>
@@ -20550,7 +20527,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17">
       <c r="A74" s="26">
         <v>45826</v>
       </c>
@@ -20591,7 +20568,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75" s="26">
         <v>45826</v>
       </c>
@@ -20632,7 +20609,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="A76" s="26">
         <v>45826</v>
       </c>
@@ -20673,7 +20650,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17">
       <c r="A77" s="26">
         <v>45826</v>
       </c>
@@ -20714,7 +20691,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17">
       <c r="A78" s="26">
         <v>45826</v>
       </c>
@@ -20755,7 +20732,7 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17">
       <c r="A79" s="26">
         <v>45826</v>
       </c>
@@ -20796,7 +20773,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17">
       <c r="A80" s="26">
         <v>45826</v>
       </c>
@@ -20837,7 +20814,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="26">
         <v>45826</v>
       </c>
@@ -20878,7 +20855,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="26">
         <v>45833</v>
       </c>
@@ -20919,7 +20896,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="5"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="26">
         <v>45833</v>
       </c>
@@ -20960,7 +20937,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="26">
         <v>45833</v>
       </c>
@@ -21001,7 +20978,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="5"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" s="26">
         <v>45833</v>
       </c>
@@ -21042,7 +21019,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="26">
         <v>45833</v>
       </c>
@@ -21083,7 +21060,7 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="5"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" s="26">
         <v>45833</v>
       </c>
@@ -21124,7 +21101,7 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17">
       <c r="A88" s="26">
         <v>45833</v>
       </c>
@@ -21165,7 +21142,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="5"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" s="26">
         <v>45833</v>
       </c>
@@ -21206,7 +21183,7 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17">
       <c r="A90" s="26">
         <v>45839</v>
       </c>
@@ -21247,7 +21224,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17">
       <c r="A91" s="26">
         <v>45839</v>
       </c>
@@ -21288,7 +21265,7 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17">
       <c r="A92" s="26">
         <v>45839</v>
       </c>
@@ -21329,7 +21306,7 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17">
       <c r="A93" s="26">
         <v>45839</v>
       </c>
@@ -21370,7 +21347,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17">
       <c r="A94" s="26">
         <v>45839</v>
       </c>
@@ -21411,7 +21388,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17">
       <c r="A95" s="26">
         <v>45839</v>
       </c>
@@ -21452,7 +21429,7 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17">
       <c r="A96" s="26">
         <v>45839</v>
       </c>
@@ -21493,7 +21470,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17">
       <c r="A97" s="26">
         <v>45839</v>
       </c>
@@ -21534,7 +21511,7 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17">
       <c r="A98" s="26">
         <v>45826</v>
       </c>
@@ -21575,7 +21552,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17">
       <c r="A99" s="26">
         <v>45826</v>
       </c>
@@ -21616,7 +21593,7 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17">
       <c r="A100" s="26">
         <v>45826</v>
       </c>
@@ -21657,7 +21634,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17">
       <c r="A101" s="26">
         <v>45826</v>
       </c>
@@ -21698,7 +21675,7 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17">
       <c r="A102" s="26">
         <v>45826</v>
       </c>
@@ -21739,7 +21716,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17">
       <c r="A103" s="26">
         <v>45826</v>
       </c>
@@ -21780,7 +21757,7 @@
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17">
       <c r="A104" s="26">
         <v>45826</v>
       </c>
@@ -21821,7 +21798,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17">
       <c r="A105" s="26">
         <v>45826</v>
       </c>
@@ -21862,7 +21839,7 @@
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17">
       <c r="A106" s="26">
         <v>45833</v>
       </c>
@@ -21903,7 +21880,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="5"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17">
       <c r="A107" s="26">
         <v>45833</v>
       </c>
@@ -21944,7 +21921,7 @@
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17">
       <c r="A108" s="26">
         <v>45833</v>
       </c>
@@ -21985,7 +21962,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="5"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="A109" s="26">
         <v>45833</v>
       </c>
@@ -22026,7 +22003,7 @@
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="A110" s="26">
         <v>45833</v>
       </c>
@@ -22067,7 +22044,7 @@
       <c r="P110" s="2"/>
       <c r="Q110" s="5"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="A111" s="26">
         <v>45833</v>
       </c>
@@ -22108,7 +22085,7 @@
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="A112" s="26">
         <v>45833</v>
       </c>
@@ -22149,7 +22126,7 @@
       <c r="P112" s="2"/>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17">
       <c r="A113" s="26">
         <v>45833</v>
       </c>
@@ -22190,7 +22167,7 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17">
       <c r="A114" s="26">
         <v>45839</v>
       </c>
@@ -22231,7 +22208,7 @@
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17">
       <c r="A115" s="26">
         <v>45839</v>
       </c>
@@ -22272,7 +22249,7 @@
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17">
       <c r="A116" s="26">
         <v>45839</v>
       </c>
@@ -22313,7 +22290,7 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17">
       <c r="A117" s="26">
         <v>45839</v>
       </c>
@@ -22354,7 +22331,7 @@
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17">
       <c r="A118" s="26">
         <v>45839</v>
       </c>
@@ -22395,7 +22372,7 @@
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17">
       <c r="A119" s="26">
         <v>45839</v>
       </c>
@@ -22436,7 +22413,7 @@
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17">
       <c r="A120" s="26">
         <v>45839</v>
       </c>
@@ -22477,7 +22454,7 @@
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17">
       <c r="A121" s="26">
         <v>45839</v>
       </c>
@@ -22518,7 +22495,7 @@
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17">
       <c r="A122" s="26">
         <v>45826</v>
       </c>
@@ -22559,7 +22536,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17">
       <c r="A123" s="26">
         <v>45826</v>
       </c>
@@ -22600,7 +22577,7 @@
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17">
       <c r="A124" s="26">
         <v>45826</v>
       </c>
@@ -22641,7 +22618,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17">
       <c r="A125" s="26">
         <v>45826</v>
       </c>
@@ -22682,7 +22659,7 @@
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17">
       <c r="A126" s="26">
         <v>45826</v>
       </c>
@@ -22723,7 +22700,7 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17">
       <c r="A127" s="26">
         <v>45826</v>
       </c>
@@ -22764,7 +22741,7 @@
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17">
       <c r="A128" s="26">
         <v>45826</v>
       </c>
@@ -22805,7 +22782,7 @@
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17">
       <c r="A129" s="26">
         <v>45826</v>
       </c>
@@ -22846,7 +22823,7 @@
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17">
       <c r="A130" s="26">
         <v>45833</v>
       </c>
@@ -22887,7 +22864,7 @@
       <c r="P130" s="2"/>
       <c r="Q130" s="5"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17">
       <c r="A131" s="26">
         <v>45833</v>
       </c>
@@ -22928,7 +22905,7 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17">
       <c r="A132" s="26">
         <v>45833</v>
       </c>
@@ -22969,7 +22946,7 @@
       <c r="P132" s="2"/>
       <c r="Q132" s="5"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17">
       <c r="A133" s="26">
         <v>45833</v>
       </c>
@@ -23010,7 +22987,7 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17">
       <c r="A134" s="26">
         <v>45833</v>
       </c>
@@ -23051,7 +23028,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="5"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17">
       <c r="A135" s="26">
         <v>45833</v>
       </c>
@@ -23092,7 +23069,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17">
       <c r="A136" s="26">
         <v>45833</v>
       </c>
@@ -23133,7 +23110,7 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="5"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17">
       <c r="A137" s="26">
         <v>45833</v>
       </c>
@@ -23174,7 +23151,7 @@
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17">
       <c r="A138" s="26">
         <v>45839</v>
       </c>
@@ -23215,7 +23192,7 @@
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17">
       <c r="A139" s="26">
         <v>45839</v>
       </c>
@@ -23256,7 +23233,7 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17">
       <c r="A140" s="26">
         <v>45839</v>
       </c>
@@ -23297,7 +23274,7 @@
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17">
       <c r="A141" s="26">
         <v>45839</v>
       </c>
@@ -23338,7 +23315,7 @@
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17">
       <c r="A142" s="26">
         <v>45839</v>
       </c>
@@ -23379,7 +23356,7 @@
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17">
       <c r="A143" s="26">
         <v>45839</v>
       </c>
@@ -23420,7 +23397,7 @@
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17">
       <c r="A144" s="26">
         <v>45839</v>
       </c>
@@ -23461,7 +23438,7 @@
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17">
       <c r="A145" s="26">
         <v>45839</v>
       </c>
@@ -23502,7 +23479,7 @@
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17">
       <c r="A146" s="26">
         <v>45826</v>
       </c>
@@ -23543,7 +23520,7 @@
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17">
       <c r="A147" s="26">
         <v>45826</v>
       </c>
@@ -23584,7 +23561,7 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17">
       <c r="A148" s="26">
         <v>45826</v>
       </c>
@@ -23625,7 +23602,7 @@
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17">
       <c r="A149" s="26">
         <v>45826</v>
       </c>
@@ -23666,7 +23643,7 @@
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17">
       <c r="A150" s="26">
         <v>45826</v>
       </c>
@@ -23707,7 +23684,7 @@
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17">
       <c r="A151" s="26">
         <v>45826</v>
       </c>
@@ -23748,7 +23725,7 @@
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17">
       <c r="A152" s="26">
         <v>45826</v>
       </c>
@@ -23789,7 +23766,7 @@
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17">
       <c r="A153" s="26">
         <v>45826</v>
       </c>
@@ -23830,7 +23807,7 @@
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17">
       <c r="A154" s="26">
         <v>45833</v>
       </c>
@@ -23871,7 +23848,7 @@
       <c r="P154" s="2"/>
       <c r="Q154" s="5"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17">
       <c r="A155" s="26">
         <v>45833</v>
       </c>
@@ -23912,7 +23889,7 @@
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17">
       <c r="A156" s="26">
         <v>45833</v>
       </c>
@@ -23953,7 +23930,7 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="5"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17">
       <c r="A157" s="26">
         <v>45833</v>
       </c>
@@ -23994,7 +23971,7 @@
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17">
       <c r="A158" s="26">
         <v>45833</v>
       </c>
@@ -24035,7 +24012,7 @@
       <c r="P158" s="2"/>
       <c r="Q158" s="5"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17">
       <c r="A159" s="26">
         <v>45833</v>
       </c>
@@ -24076,7 +24053,7 @@
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17">
       <c r="A160" s="26">
         <v>45833</v>
       </c>
@@ -24117,7 +24094,7 @@
       <c r="P160" s="2"/>
       <c r="Q160" s="5"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17">
       <c r="A161" s="26">
         <v>45833</v>
       </c>
@@ -24158,7 +24135,7 @@
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17">
       <c r="A162" s="26">
         <v>45839</v>
       </c>
@@ -24199,7 +24176,7 @@
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17">
       <c r="A163" s="26">
         <v>45839</v>
       </c>
@@ -24240,7 +24217,7 @@
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17">
       <c r="A164" s="26">
         <v>45839</v>
       </c>
@@ -24281,7 +24258,7 @@
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17">
       <c r="A165" s="26">
         <v>45839</v>
       </c>
@@ -24322,7 +24299,7 @@
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17">
       <c r="A166" s="26">
         <v>45839</v>
       </c>
@@ -24363,7 +24340,7 @@
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17">
       <c r="A167" s="26">
         <v>45839</v>
       </c>
@@ -24404,7 +24381,7 @@
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17">
       <c r="A168" s="26">
         <v>45839</v>
       </c>
@@ -24445,7 +24422,7 @@
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17">
       <c r="A169" s="26">
         <v>45839</v>
       </c>
@@ -24486,7 +24463,7 @@
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17">
       <c r="A170" s="26">
         <v>45826</v>
       </c>
@@ -24527,7 +24504,7 @@
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17">
       <c r="A171" s="26">
         <v>45826</v>
       </c>
@@ -24568,7 +24545,7 @@
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17">
       <c r="A172" s="26">
         <v>45826</v>
       </c>
@@ -24609,7 +24586,7 @@
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17">
       <c r="A173" s="26">
         <v>45826</v>
       </c>
@@ -24650,7 +24627,7 @@
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17">
       <c r="A174" s="26">
         <v>45826</v>
       </c>
@@ -24691,7 +24668,7 @@
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17">
       <c r="A175" s="26">
         <v>45826</v>
       </c>
@@ -24732,7 +24709,7 @@
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17">
       <c r="A176" s="26">
         <v>45826</v>
       </c>
@@ -24773,7 +24750,7 @@
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17">
       <c r="A177" s="26">
         <v>45826</v>
       </c>
@@ -24814,7 +24791,7 @@
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17">
       <c r="A178" s="26">
         <v>45833</v>
       </c>
@@ -24855,7 +24832,7 @@
       <c r="P178" s="2"/>
       <c r="Q178" s="5"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17">
       <c r="A179" s="26">
         <v>45833</v>
       </c>
@@ -24896,7 +24873,7 @@
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17">
       <c r="A180" s="26">
         <v>45833</v>
       </c>
@@ -24937,7 +24914,7 @@
       <c r="P180" s="2"/>
       <c r="Q180" s="5"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17">
       <c r="A181" s="26">
         <v>45833</v>
       </c>
@@ -24978,7 +24955,7 @@
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17">
       <c r="A182" s="26">
         <v>45833</v>
       </c>
@@ -25019,7 +24996,7 @@
       <c r="P182" s="2"/>
       <c r="Q182" s="5"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17">
       <c r="A183" s="26">
         <v>45833</v>
       </c>
@@ -25060,7 +25037,7 @@
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17">
       <c r="A184" s="26">
         <v>45833</v>
       </c>
@@ -25101,7 +25078,7 @@
       <c r="P184" s="2"/>
       <c r="Q184" s="5"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17">
       <c r="A185" s="26">
         <v>45833</v>
       </c>
@@ -25142,7 +25119,7 @@
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17">
       <c r="A186" s="26">
         <v>45839</v>
       </c>
@@ -25183,7 +25160,7 @@
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17">
       <c r="A187" s="26">
         <v>45839</v>
       </c>
@@ -25224,7 +25201,7 @@
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17">
       <c r="A188" s="26">
         <v>45839</v>
       </c>
@@ -25265,7 +25242,7 @@
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17">
       <c r="A189" s="26">
         <v>45839</v>
       </c>
@@ -25306,7 +25283,7 @@
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17">
       <c r="A190" s="26">
         <v>45839</v>
       </c>
@@ -25347,7 +25324,7 @@
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17">
       <c r="A191" s="26">
         <v>45839</v>
       </c>
@@ -25388,7 +25365,7 @@
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17">
       <c r="A192" s="26">
         <v>45839</v>
       </c>
@@ -25429,7 +25406,7 @@
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17">
       <c r="A193" s="26">
         <v>45839</v>
       </c>
@@ -25470,7 +25447,7 @@
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17">
       <c r="A194" s="26">
         <v>45826</v>
       </c>
@@ -25511,7 +25488,7 @@
       <c r="P194" s="2"/>
       <c r="Q194" s="2"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17">
       <c r="A195" s="26">
         <v>45826</v>
       </c>
@@ -25552,7 +25529,7 @@
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17">
       <c r="A196" s="26">
         <v>45826</v>
       </c>
@@ -25593,7 +25570,7 @@
       <c r="P196" s="2"/>
       <c r="Q196" s="2"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17">
       <c r="A197" s="26">
         <v>45826</v>
       </c>
@@ -25634,7 +25611,7 @@
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17">
       <c r="A198" s="26">
         <v>45826</v>
       </c>
@@ -25675,7 +25652,7 @@
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17">
       <c r="A199" s="26">
         <v>45826</v>
       </c>
@@ -25716,7 +25693,7 @@
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17">
       <c r="A200" s="26">
         <v>45826</v>
       </c>
@@ -25757,7 +25734,7 @@
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17">
       <c r="A201" s="26">
         <v>45826</v>
       </c>
@@ -25798,7 +25775,7 @@
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17">
       <c r="A202" s="26">
         <v>45833</v>
       </c>
@@ -25839,7 +25816,7 @@
       <c r="P202" s="2"/>
       <c r="Q202" s="5"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17">
       <c r="A203" s="26">
         <v>45833</v>
       </c>
@@ -25880,7 +25857,7 @@
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17">
       <c r="A204" s="26">
         <v>45833</v>
       </c>
@@ -25921,7 +25898,7 @@
       <c r="P204" s="2"/>
       <c r="Q204" s="5"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17">
       <c r="A205" s="26">
         <v>45833</v>
       </c>
@@ -25962,7 +25939,7 @@
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17">
       <c r="A206" s="26">
         <v>45833</v>
       </c>
@@ -26003,7 +25980,7 @@
       <c r="P206" s="2"/>
       <c r="Q206" s="5"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17">
       <c r="A207" s="26">
         <v>45833</v>
       </c>
@@ -26044,7 +26021,7 @@
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17">
       <c r="A208" s="26">
         <v>45833</v>
       </c>
@@ -26085,7 +26062,7 @@
       <c r="P208" s="2"/>
       <c r="Q208" s="5"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17">
       <c r="A209" s="26">
         <v>45833</v>
       </c>
@@ -26126,7 +26103,7 @@
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17">
       <c r="A210" s="26">
         <v>45839</v>
       </c>
@@ -26167,7 +26144,7 @@
       <c r="P210" s="2"/>
       <c r="Q210" s="2"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17">
       <c r="A211" s="26">
         <v>45839</v>
       </c>
@@ -26208,7 +26185,7 @@
       <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17">
       <c r="A212" s="26">
         <v>45839</v>
       </c>
@@ -26249,7 +26226,7 @@
       <c r="P212" s="2"/>
       <c r="Q212" s="2"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17">
       <c r="A213" s="26">
         <v>45839</v>
       </c>
@@ -26290,7 +26267,7 @@
       <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17">
       <c r="A214" s="26">
         <v>45839</v>
       </c>
@@ -26331,7 +26308,7 @@
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17">
       <c r="A215" s="26">
         <v>45839</v>
       </c>
@@ -26372,7 +26349,7 @@
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17">
       <c r="A216" s="26">
         <v>45839</v>
       </c>
@@ -26413,7 +26390,7 @@
       <c r="P216" s="2"/>
       <c r="Q216" s="2"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17">
       <c r="A217" s="26">
         <v>45839</v>
       </c>
@@ -26454,7 +26431,7 @@
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17">
       <c r="A218" s="26">
         <v>45826</v>
       </c>
@@ -26495,7 +26472,7 @@
       <c r="P218" s="2"/>
       <c r="Q218" s="2"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17">
       <c r="A219" s="26">
         <v>45826</v>
       </c>
@@ -26536,7 +26513,7 @@
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17">
       <c r="A220" s="26">
         <v>45826</v>
       </c>
@@ -26577,7 +26554,7 @@
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17">
       <c r="A221" s="26">
         <v>45826</v>
       </c>
@@ -26618,7 +26595,7 @@
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17">
       <c r="A222" s="26">
         <v>45826</v>
       </c>
@@ -26659,7 +26636,7 @@
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17">
       <c r="A223" s="26">
         <v>45826</v>
       </c>
@@ -26700,7 +26677,7 @@
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17">
       <c r="A224" s="26">
         <v>45826</v>
       </c>
@@ -26741,7 +26718,7 @@
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17">
       <c r="A225" s="26">
         <v>45826</v>
       </c>
@@ -26782,7 +26759,7 @@
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17">
       <c r="A226" s="26">
         <v>45833</v>
       </c>
@@ -26823,7 +26800,7 @@
       <c r="P226" s="2"/>
       <c r="Q226" s="5"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17">
       <c r="A227" s="26">
         <v>45833</v>
       </c>
@@ -26864,7 +26841,7 @@
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17">
       <c r="A228" s="26">
         <v>45833</v>
       </c>
@@ -26905,7 +26882,7 @@
       <c r="P228" s="2"/>
       <c r="Q228" s="5"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17">
       <c r="A229" s="26">
         <v>45833</v>
       </c>
@@ -26946,7 +26923,7 @@
       <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17">
       <c r="A230" s="26">
         <v>45833</v>
       </c>
@@ -26987,7 +26964,7 @@
       <c r="P230" s="2"/>
       <c r="Q230" s="5"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17">
       <c r="A231" s="26">
         <v>45833</v>
       </c>
@@ -27028,7 +27005,7 @@
       <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17">
       <c r="A232" s="26">
         <v>45833</v>
       </c>
@@ -27069,7 +27046,7 @@
       <c r="P232" s="2"/>
       <c r="Q232" s="5"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17">
       <c r="A233" s="26">
         <v>45833</v>
       </c>
@@ -27110,7 +27087,7 @@
       <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17">
       <c r="A234" s="26">
         <v>45839</v>
       </c>
@@ -27151,7 +27128,7 @@
       <c r="P234" s="2"/>
       <c r="Q234" s="2"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17">
       <c r="A235" s="26">
         <v>45839</v>
       </c>
@@ -27192,7 +27169,7 @@
       <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17">
       <c r="A236" s="26">
         <v>45839</v>
       </c>
@@ -27233,7 +27210,7 @@
       <c r="P236" s="2"/>
       <c r="Q236" s="2"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17">
       <c r="A237" s="26">
         <v>45839</v>
       </c>
@@ -27274,7 +27251,7 @@
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17">
       <c r="A238" s="26">
         <v>45839</v>
       </c>
@@ -27315,7 +27292,7 @@
       <c r="P238" s="2"/>
       <c r="Q238" s="2"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17">
       <c r="A239" s="26">
         <v>45839</v>
       </c>
@@ -27356,7 +27333,7 @@
       <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17">
       <c r="A240" s="26">
         <v>45839</v>
       </c>
@@ -27397,7 +27374,7 @@
       <c r="P240" s="2"/>
       <c r="Q240" s="2"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17">
       <c r="A241" s="26">
         <v>45839</v>
       </c>
@@ -27438,7 +27415,7 @@
       <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17">
       <c r="A242" s="26">
         <v>45826</v>
       </c>
@@ -27479,7 +27456,7 @@
       <c r="P242" s="2"/>
       <c r="Q242" s="2"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17">
       <c r="A243" s="26">
         <v>45826</v>
       </c>
@@ -27520,7 +27497,7 @@
       <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17">
       <c r="A244" s="26">
         <v>45826</v>
       </c>
@@ -27561,7 +27538,7 @@
       <c r="P244" s="2"/>
       <c r="Q244" s="2"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17">
       <c r="A245" s="26">
         <v>45826</v>
       </c>
@@ -27602,7 +27579,7 @@
       <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17">
       <c r="A246" s="26">
         <v>45826</v>
       </c>
@@ -27643,7 +27620,7 @@
       <c r="P246" s="2"/>
       <c r="Q246" s="2"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17">
       <c r="A247" s="26">
         <v>45826</v>
       </c>
@@ -27684,7 +27661,7 @@
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17">
       <c r="A248" s="26">
         <v>45826</v>
       </c>
@@ -27725,7 +27702,7 @@
       <c r="P248" s="2"/>
       <c r="Q248" s="2"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17">
       <c r="A249" s="26">
         <v>45826</v>
       </c>
@@ -27766,7 +27743,7 @@
       <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17">
       <c r="A250" s="26">
         <v>45833</v>
       </c>
@@ -27807,7 +27784,7 @@
       <c r="P250" s="2"/>
       <c r="Q250" s="5"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17">
       <c r="A251" s="26">
         <v>45833</v>
       </c>
@@ -27848,7 +27825,7 @@
       <c r="P251" s="3"/>
       <c r="Q251" s="3"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17">
       <c r="A252" s="26">
         <v>45833</v>
       </c>
@@ -27889,7 +27866,7 @@
       <c r="P252" s="2"/>
       <c r="Q252" s="5"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17">
       <c r="A253" s="26">
         <v>45833</v>
       </c>
@@ -27930,7 +27907,7 @@
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17">
       <c r="A254" s="26">
         <v>45833</v>
       </c>
@@ -27971,7 +27948,7 @@
       <c r="P254" s="2"/>
       <c r="Q254" s="5"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17">
       <c r="A255" s="26">
         <v>45833</v>
       </c>
@@ -28012,7 +27989,7 @@
       <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17">
       <c r="A256" s="26">
         <v>45833</v>
       </c>
@@ -28053,7 +28030,7 @@
       <c r="P256" s="2"/>
       <c r="Q256" s="5"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17">
       <c r="A257" s="26">
         <v>45833</v>
       </c>
@@ -28094,7 +28071,7 @@
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17">
       <c r="A258" s="26">
         <v>45839</v>
       </c>
@@ -28135,7 +28112,7 @@
       <c r="P258" s="2"/>
       <c r="Q258" s="2"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17">
       <c r="A259" s="26">
         <v>45839</v>
       </c>
@@ -28176,7 +28153,7 @@
       <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17">
       <c r="A260" s="26">
         <v>45839</v>
       </c>
@@ -28217,7 +28194,7 @@
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17">
       <c r="A261" s="26">
         <v>45839</v>
       </c>
@@ -28258,7 +28235,7 @@
       <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17">
       <c r="A262" s="26">
         <v>45839</v>
       </c>
@@ -28299,7 +28276,7 @@
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17">
       <c r="A263" s="26">
         <v>45839</v>
       </c>
@@ -28340,7 +28317,7 @@
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17">
       <c r="A264" s="26">
         <v>45839</v>
       </c>
@@ -28381,7 +28358,7 @@
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17">
       <c r="A265" s="26">
         <v>45839</v>
       </c>
@@ -28422,7 +28399,7 @@
       <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17">
       <c r="A266" s="26">
         <v>45826</v>
       </c>
@@ -28463,7 +28440,7 @@
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17">
       <c r="A267" s="26">
         <v>45826</v>
       </c>
@@ -28504,7 +28481,7 @@
       <c r="P267" s="3"/>
       <c r="Q267" s="3"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17">
       <c r="A268" s="26">
         <v>45826</v>
       </c>
@@ -28545,7 +28522,7 @@
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17">
       <c r="A269" s="26">
         <v>45826</v>
       </c>
@@ -28586,7 +28563,7 @@
       <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17">
       <c r="A270" s="26">
         <v>45826</v>
       </c>
@@ -28627,7 +28604,7 @@
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17">
       <c r="A271" s="26">
         <v>45826</v>
       </c>
@@ -28668,7 +28645,7 @@
       <c r="P271" s="3"/>
       <c r="Q271" s="3"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17">
       <c r="A272" s="26">
         <v>45826</v>
       </c>
@@ -28709,7 +28686,7 @@
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17">
       <c r="A273" s="26">
         <v>45826</v>
       </c>
@@ -28750,7 +28727,7 @@
       <c r="P273" s="3"/>
       <c r="Q273" s="3"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17">
       <c r="A274" s="26">
         <v>45833</v>
       </c>
@@ -28791,7 +28768,7 @@
       <c r="P274" s="2"/>
       <c r="Q274" s="5"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17">
       <c r="A275" s="26">
         <v>45833</v>
       </c>
@@ -28832,7 +28809,7 @@
       <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17">
       <c r="A276" s="26">
         <v>45833</v>
       </c>
@@ -28873,7 +28850,7 @@
       <c r="P276" s="2"/>
       <c r="Q276" s="5"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17">
       <c r="A277" s="26">
         <v>45833</v>
       </c>
@@ -28914,7 +28891,7 @@
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17">
       <c r="A278" s="26">
         <v>45833</v>
       </c>
@@ -28955,7 +28932,7 @@
       <c r="P278" s="2"/>
       <c r="Q278" s="5"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17">
       <c r="A279" s="26">
         <v>45833</v>
       </c>
@@ -28996,7 +28973,7 @@
       <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17">
       <c r="A280" s="26">
         <v>45833</v>
       </c>
@@ -29037,7 +29014,7 @@
       <c r="P280" s="2"/>
       <c r="Q280" s="5"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17">
       <c r="A281" s="26">
         <v>45833</v>
       </c>
@@ -29078,7 +29055,7 @@
       <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17">
       <c r="A282" s="26">
         <v>45839</v>
       </c>
@@ -29119,7 +29096,7 @@
       <c r="P282" s="2"/>
       <c r="Q282" s="2"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17">
       <c r="A283" s="26">
         <v>45839</v>
       </c>
@@ -29160,7 +29137,7 @@
       <c r="P283" s="3"/>
       <c r="Q283" s="3"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17">
       <c r="A284" s="26">
         <v>45839</v>
       </c>
@@ -29201,7 +29178,7 @@
       <c r="P284" s="2"/>
       <c r="Q284" s="2"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17">
       <c r="A285" s="26">
         <v>45839</v>
       </c>
@@ -29242,7 +29219,7 @@
       <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17">
       <c r="A286" s="26">
         <v>45839</v>
       </c>
@@ -29283,7 +29260,7 @@
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17">
       <c r="A287" s="26">
         <v>45839</v>
       </c>
@@ -29324,7 +29301,7 @@
       <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17">
       <c r="A288" s="26">
         <v>45839</v>
       </c>
@@ -29365,7 +29342,7 @@
       <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17">
       <c r="A289" s="26">
         <v>45839</v>
       </c>
@@ -29432,192 +29409,192 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="36.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="4" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="47">
+        <v>7</v>
+      </c>
+      <c r="C2" s="47">
+        <v>9.25</v>
+      </c>
+      <c r="D2" s="47">
+        <v>10.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="47">
+        <v>6.625</v>
+      </c>
+      <c r="C3" s="47">
+        <v>8.75</v>
+      </c>
+      <c r="D3" s="47">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="53">
+      <c r="B4" s="47">
         <v>7</v>
       </c>
-      <c r="C2" s="53">
-        <v>9.25</v>
-      </c>
-      <c r="D2" s="53">
-        <v>10.375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="53">
+      <c r="C4" s="47">
+        <v>9.625</v>
+      </c>
+      <c r="D4" s="47">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="47">
         <v>6.625</v>
       </c>
-      <c r="C3" s="53">
-        <v>8.75</v>
-      </c>
-      <c r="D3" s="53">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="53">
-        <v>7</v>
-      </c>
-      <c r="C4" s="53">
-        <v>9.625</v>
-      </c>
-      <c r="D4" s="53">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="53">
-        <v>6.625</v>
-      </c>
-      <c r="C5" s="53">
+      <c r="C5" s="47">
         <v>9</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="47">
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="47">
         <v>7.25</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="47">
         <v>10.75</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="47">
         <v>12.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="53">
+        <v>47</v>
+      </c>
+      <c r="B7" s="47">
         <v>7.25</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="47">
         <v>10.625</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="47">
         <v>12.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="53">
+        <v>37</v>
+      </c>
+      <c r="B8" s="47">
         <v>7.375</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="47">
         <v>11.375</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="47">
         <v>12.625</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="53">
+        <v>49</v>
+      </c>
+      <c r="B9" s="47">
         <v>7.125</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="47">
         <v>10.375</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="47">
         <v>12.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="53">
+        <v>39</v>
+      </c>
+      <c r="B10" s="47">
         <v>7.5</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="47">
         <v>11.5</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="47">
         <v>12.875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="53">
+        <v>33</v>
+      </c>
+      <c r="B11" s="47">
         <v>7.375</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="47">
         <v>10.5</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="47">
         <v>13.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="53">
+        <v>35</v>
+      </c>
+      <c r="B12" s="47">
         <v>7.375</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="47">
         <v>11.375</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="47">
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" thickBot="1">
       <c r="A13" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="53">
+        <v>31</v>
+      </c>
+      <c r="B13" s="47">
         <v>7.625</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="47">
         <v>13</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="47">
         <v>13.625</v>
       </c>
     </row>
